--- a/02_MasterWifoMannheim/99_Backup/Course76.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course76.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A2011592188F36053F844" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F26A1A14-0F13-4307-93F2-BBCF5C87123A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D05905DB9B3611597CF0766FE1F9F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F70653-7519-495F-8515-D15906475471}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="2130" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Spring semester</t>
+    <t>SSS</t>
   </si>
   <si>
     <t>Language</t>
@@ -106,7 +106,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
   </si>
   <si>
-    <t>FIN 5XX, FIN 604</t>
+    <t>Banking, Finance, and Insurance (FIN), FIN 604</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
